--- a/docs/Capstone SDLC - Agile Gantt Chart.xlsx
+++ b/docs/Capstone SDLC - Agile Gantt Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2646C1E2-43EA-439A-9664-189462DF01D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEC397E-B3BB-4AE2-9210-14AA51ED46C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Category</t>
   </si>
@@ -172,6 +172,21 @@
   </si>
   <si>
     <t>Validate new Requirements</t>
+  </si>
+  <si>
+    <t>Programming/Building - Iter 3</t>
+  </si>
+  <si>
+    <t>Improve Performance for Inference and Per Frame times</t>
+  </si>
+  <si>
+    <t>Comparison between zones</t>
+  </si>
+  <si>
+    <t>High Risk</t>
+  </si>
+  <si>
+    <t>Add GUI instead of console</t>
   </si>
 </sst>
 </file>
@@ -414,7 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -771,6 +786,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -813,26 +846,8 @@
     <xf numFmtId="37" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -849,134 +864,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -1044,6 +932,24 @@
         <right/>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1306,21 +1212,21 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="4" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
-      <tableStyleElement type="firstRowStripe" dxfId="27"/>
-      <tableStyleElement type="secondRowStripe" dxfId="26"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="secondRowStripe" dxfId="21"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
-      <tableStyleElement type="totalRow" dxfId="23"/>
-      <tableStyleElement type="firstColumn" dxfId="22"/>
-      <tableStyleElement type="lastColumn" dxfId="21"/>
-      <tableStyleElement type="firstRowStripe" dxfId="20"/>
-      <tableStyleElement type="secondRowStripe" dxfId="19"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="17"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="totalRow" dxfId="18"/>
+      <tableStyleElement type="firstColumn" dxfId="17"/>
+      <tableStyleElement type="lastColumn" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="secondRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1414,7 +1320,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$C$7" horiz="1" max="365" page="2" val="42"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$C$7" horiz="1" max="365" page="2" val="44"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1531,8 +1437,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:F44" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="B9:F44" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:F50" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="B9:F50" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1540,8 +1446,8 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Days" dataCellStyle="Comma [0]"/>
@@ -1840,11 +1746,11 @@
     <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="59"/>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="59"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1872,11 +1778,11 @@
     <row r="4" spans="1:13" s="6" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="54"/>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="54"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1889,11 +1795,11 @@
     <row r="5" spans="1:13" s="6" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="54"/>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="54"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1993,12 +1899,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO44"/>
+  <dimension ref="A1:BO50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B2" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:BH2"/>
+      <selection pane="bottomLeft" activeCell="AC44" sqref="AC44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2017,67 +1923,67 @@
     <row r="1" spans="1:67" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:67" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="66"/>
-      <c r="BD2" s="66"/>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="66"/>
-      <c r="BH2" s="66"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
       <c r="BI2" s="43"/>
       <c r="BJ2" s="43"/>
       <c r="BK2" s="43"/>
@@ -2101,45 +2007,45 @@
       <c r="B4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="29" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="27"/>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="M4" s="71" t="s">
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="M4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="R4" s="72" t="s">
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="R4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="W4" s="68" t="s">
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="W4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AB4" s="69" t="s">
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AB4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="75"/>
     </row>
     <row r="5" spans="1:67" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -2252,7 +2158,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="33">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -2260,227 +2166,227 @@
       <c r="G7" s="34"/>
       <c r="H7" s="44">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>45549</v>
+        <v>45551</v>
       </c>
       <c r="I7" s="45">
         <f ca="1">H7+1</f>
-        <v>45550</v>
+        <v>45552</v>
       </c>
       <c r="J7" s="45">
         <f t="shared" ref="J7:AW7" ca="1" si="0">I7+1</f>
-        <v>45551</v>
+        <v>45553</v>
       </c>
       <c r="K7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45552</v>
+        <v>45554</v>
       </c>
       <c r="L7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45553</v>
+        <v>45555</v>
       </c>
       <c r="M7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45554</v>
+        <v>45556</v>
       </c>
       <c r="N7" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>45555</v>
+        <v>45557</v>
       </c>
       <c r="O7" s="45">
         <f ca="1">N7+1</f>
-        <v>45556</v>
+        <v>45558</v>
       </c>
       <c r="P7" s="45">
         <f ca="1">O7+1</f>
-        <v>45557</v>
+        <v>45559</v>
       </c>
       <c r="Q7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45558</v>
+        <v>45560</v>
       </c>
       <c r="R7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45559</v>
+        <v>45561</v>
       </c>
       <c r="S7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45560</v>
+        <v>45562</v>
       </c>
       <c r="T7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45561</v>
+        <v>45563</v>
       </c>
       <c r="U7" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>45562</v>
+        <v>45564</v>
       </c>
       <c r="V7" s="45">
         <f ca="1">U7+1</f>
-        <v>45563</v>
+        <v>45565</v>
       </c>
       <c r="W7" s="45">
         <f ca="1">V7+1</f>
-        <v>45564</v>
+        <v>45566</v>
       </c>
       <c r="X7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45565</v>
+        <v>45567</v>
       </c>
       <c r="Y7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45566</v>
+        <v>45568</v>
       </c>
       <c r="Z7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45567</v>
+        <v>45569</v>
       </c>
       <c r="AA7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45568</v>
+        <v>45570</v>
       </c>
       <c r="AB7" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>45569</v>
+        <v>45571</v>
       </c>
       <c r="AC7" s="45">
         <f ca="1">AB7+1</f>
-        <v>45570</v>
+        <v>45572</v>
       </c>
       <c r="AD7" s="45">
         <f ca="1">AC7+1</f>
-        <v>45571</v>
+        <v>45573</v>
       </c>
       <c r="AE7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45572</v>
+        <v>45574</v>
       </c>
       <c r="AF7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45573</v>
+        <v>45575</v>
       </c>
       <c r="AG7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45574</v>
+        <v>45576</v>
       </c>
       <c r="AH7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45575</v>
+        <v>45577</v>
       </c>
       <c r="AI7" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>45576</v>
+        <v>45578</v>
       </c>
       <c r="AJ7" s="45">
         <f ca="1">AI7+1</f>
-        <v>45577</v>
+        <v>45579</v>
       </c>
       <c r="AK7" s="45">
         <f ca="1">AJ7+1</f>
-        <v>45578</v>
+        <v>45580</v>
       </c>
       <c r="AL7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45579</v>
+        <v>45581</v>
       </c>
       <c r="AM7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45580</v>
+        <v>45582</v>
       </c>
       <c r="AN7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45581</v>
+        <v>45583</v>
       </c>
       <c r="AO7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45582</v>
+        <v>45584</v>
       </c>
       <c r="AP7" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>45583</v>
+        <v>45585</v>
       </c>
       <c r="AQ7" s="45">
         <f ca="1">AP7+1</f>
-        <v>45584</v>
+        <v>45586</v>
       </c>
       <c r="AR7" s="45">
         <f ca="1">AQ7+1</f>
-        <v>45585</v>
+        <v>45587</v>
       </c>
       <c r="AS7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="AT7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45587</v>
+        <v>45589</v>
       </c>
       <c r="AU7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45588</v>
+        <v>45590</v>
       </c>
       <c r="AV7" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45589</v>
+        <v>45591</v>
       </c>
       <c r="AW7" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>45590</v>
+        <v>45592</v>
       </c>
       <c r="AX7" s="45">
         <f ca="1">AW7+1</f>
-        <v>45591</v>
+        <v>45593</v>
       </c>
       <c r="AY7" s="45">
         <f ca="1">AX7+1</f>
-        <v>45592</v>
+        <v>45594</v>
       </c>
       <c r="AZ7" s="45">
         <f t="shared" ref="AZ7:BD7" ca="1" si="1">AY7+1</f>
-        <v>45593</v>
+        <v>45595</v>
       </c>
       <c r="BA7" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>45594</v>
+        <v>45596</v>
       </c>
       <c r="BB7" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>45595</v>
+        <v>45597</v>
       </c>
       <c r="BC7" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>45596</v>
+        <v>45598</v>
       </c>
       <c r="BD7" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>45597</v>
+        <v>45599</v>
       </c>
       <c r="BE7" s="45">
         <f ca="1">BD7+1</f>
-        <v>45598</v>
+        <v>45600</v>
       </c>
       <c r="BF7" s="45">
         <f ca="1">BE7+1</f>
-        <v>45599</v>
+        <v>45601</v>
       </c>
       <c r="BG7" s="45">
         <f t="shared" ref="BG7:BK7" ca="1" si="2">BF7+1</f>
-        <v>45600</v>
+        <v>45602</v>
       </c>
       <c r="BH7" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>45601</v>
+        <v>45603</v>
       </c>
       <c r="BI7" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>45602</v>
+        <v>45604</v>
       </c>
       <c r="BJ7" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="BK7" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>45604</v>
+        <v>45606</v>
       </c>
     </row>
     <row r="8" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2568,15 +2474,15 @@
       <c r="G9" s="37"/>
       <c r="H9" s="52" t="str">
         <f t="shared" ref="H9:BK9" ca="1" si="3">LEFT(TEXT(H7,"ddd"),1)</f>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="I9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="J9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="K9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2584,27 +2490,27 @@
       </c>
       <c r="L9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="M9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="N9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="O9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="P9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="Q9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="R9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2612,27 +2518,27 @@
       </c>
       <c r="S9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="T9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="U9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="V9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="W9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="X9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="Y9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2640,27 +2546,27 @@
       </c>
       <c r="Z9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AA9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AB9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AC9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AD9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AE9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AF9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2668,27 +2574,27 @@
       </c>
       <c r="AG9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AH9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AI9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AJ9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AK9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AL9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AM9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2696,27 +2602,27 @@
       </c>
       <c r="AN9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AO9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AP9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AQ9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AR9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AS9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AT9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2724,27 +2630,27 @@
       </c>
       <c r="AU9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AV9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AW9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AX9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AY9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AZ9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="BA9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2752,27 +2658,27 @@
       </c>
       <c r="BB9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="BC9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BD9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BE9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BF9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BG9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="BH9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2780,15 +2686,15 @@
       </c>
       <c r="BI9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="BJ9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BK9" s="52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
     </row>
     <row r="10" spans="1:67" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3831,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="17">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E15" s="18">
         <f>E12+2</f>
@@ -4072,16 +3978,9 @@
         <v>35</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="17">
-        <v>0</v>
-      </c>
-      <c r="E16" s="18">
-        <f>E12+6</f>
-        <v>45515</v>
-      </c>
-      <c r="F16" s="19">
-        <v>0</v>
-      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="16"/>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4796,7 +4695,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="17">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="E19" s="18">
         <f>E18+2</f>
@@ -5035,16 +4934,9 @@
       <c r="A20" s="7"/>
       <c r="B20" s="20"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="17">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
-        <f>E19+4</f>
-        <v>45527</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0</v>
-      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="16"/>
       <c r="H20" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5278,13 +5170,8 @@
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="18">
-        <f>E20+2</f>
-        <v>45529</v>
-      </c>
-      <c r="F21" s="19">
-        <v>0</v>
-      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="16"/>
       <c r="H21" s="13" t="str">
         <f t="shared" ref="H21:Q28" ca="1" si="10">IF(AND($C21="Goal",H$7&gt;=$E21,H$7&lt;=$E21+$F21-1),2,IF(AND($C21="Milestone",H$7&gt;=$E21,H$7&lt;=$E21+$F21-1),1,""))</f>
@@ -5518,13 +5405,8 @@
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="18">
-        <f>E21+1</f>
-        <v>45530</v>
-      </c>
-      <c r="F22" s="19">
-        <v>0</v>
-      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="16"/>
       <c r="H22" s="13" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6734,7 +6616,7 @@
         <v>45523</v>
       </c>
       <c r="F27" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="13" t="str">
@@ -6971,7 +6853,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="18">
         <f>E16+9</f>
-        <v>45524</v>
+        <v>9</v>
       </c>
       <c r="F28" s="19">
         <v>0</v>
@@ -7213,227 +7095,227 @@
       <c r="F29" s="19"/>
       <c r="G29" s="16"/>
       <c r="H29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",H$7&gt;=$E29,H$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",H$7&gt;=$E29,H$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ref="H29:Q34" ca="1" si="16">IF(AND($C29="Goal",H$7&gt;=$E29,H$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",H$7&gt;=$E29,H$7&lt;=$E29+$F29-1),1,""))</f>
         <v/>
       </c>
       <c r="I29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",I$7&gt;=$E29,I$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",I$7&gt;=$E29,I$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="J29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",J$7&gt;=$E29,J$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",J$7&gt;=$E29,J$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",K$7&gt;=$E29,K$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",K$7&gt;=$E29,K$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="L29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",L$7&gt;=$E29,L$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",L$7&gt;=$E29,L$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",M$7&gt;=$E29,M$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",M$7&gt;=$E29,M$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="N29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",N$7&gt;=$E29,N$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",N$7&gt;=$E29,N$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="O29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",O$7&gt;=$E29,O$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",O$7&gt;=$E29,O$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="P29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",P$7&gt;=$E29,P$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",P$7&gt;=$E29,P$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Q29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",Q$7&gt;=$E29,Q$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",Q$7&gt;=$E29,Q$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="R29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",R$7&gt;=$E29,R$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",R$7&gt;=$E29,R$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ref="R29:AA34" ca="1" si="17">IF(AND($C29="Goal",R$7&gt;=$E29,R$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",R$7&gt;=$E29,R$7&lt;=$E29+$F29-1),1,""))</f>
         <v/>
       </c>
       <c r="S29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",S$7&gt;=$E29,S$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",S$7&gt;=$E29,S$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",T$7&gt;=$E29,T$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",T$7&gt;=$E29,T$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",U$7&gt;=$E29,U$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",U$7&gt;=$E29,U$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",V$7&gt;=$E29,V$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",V$7&gt;=$E29,V$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",W$7&gt;=$E29,W$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",W$7&gt;=$E29,W$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",X$7&gt;=$E29,X$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",X$7&gt;=$E29,X$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",Y$7&gt;=$E29,Y$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",Y$7&gt;=$E29,Y$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",Z$7&gt;=$E29,Z$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",Z$7&gt;=$E29,Z$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AA29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AA$7&gt;=$E29,AA$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AA$7&gt;=$E29,AA$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AB29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AB$7&gt;=$E29,AB$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AB$7&gt;=$E29,AB$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ref="AB29:AK34" ca="1" si="18">IF(AND($C29="Goal",AB$7&gt;=$E29,AB$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AB$7&gt;=$E29,AB$7&lt;=$E29+$F29-1),1,""))</f>
         <v/>
       </c>
       <c r="AC29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AC$7&gt;=$E29,AC$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AC$7&gt;=$E29,AC$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AD29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AD$7&gt;=$E29,AD$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AD$7&gt;=$E29,AD$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AE$7&gt;=$E29,AE$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AE$7&gt;=$E29,AE$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AF29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AF$7&gt;=$E29,AF$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AF$7&gt;=$E29,AF$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AG$7&gt;=$E29,AG$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AG$7&gt;=$E29,AG$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AH$7&gt;=$E29,AH$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AH$7&gt;=$E29,AH$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AI$7&gt;=$E29,AI$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AI$7&gt;=$E29,AI$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AJ$7&gt;=$E29,AJ$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AJ$7&gt;=$E29,AJ$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AK29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AK$7&gt;=$E29,AK$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AK$7&gt;=$E29,AK$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AL29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AL$7&gt;=$E29,AL$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AL$7&gt;=$E29,AL$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ref="AL29:AU34" ca="1" si="19">IF(AND($C29="Goal",AL$7&gt;=$E29,AL$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AL$7&gt;=$E29,AL$7&lt;=$E29+$F29-1),1,""))</f>
         <v/>
       </c>
       <c r="AM29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AM$7&gt;=$E29,AM$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AM$7&gt;=$E29,AM$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AN29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AN$7&gt;=$E29,AN$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AN$7&gt;=$E29,AN$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AO$7&gt;=$E29,AO$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AO$7&gt;=$E29,AO$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AP$7&gt;=$E29,AP$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AP$7&gt;=$E29,AP$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AQ$7&gt;=$E29,AQ$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AQ$7&gt;=$E29,AQ$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AR$7&gt;=$E29,AR$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AR$7&gt;=$E29,AR$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AS$7&gt;=$E29,AS$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AS$7&gt;=$E29,AS$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AT$7&gt;=$E29,AT$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AT$7&gt;=$E29,AT$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AU29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AU$7&gt;=$E29,AU$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AU$7&gt;=$E29,AU$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AV29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AV$7&gt;=$E29,AV$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AV$7&gt;=$E29,AV$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ref="AV29:BE34" ca="1" si="20">IF(AND($C29="Goal",AV$7&gt;=$E29,AV$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AV$7&gt;=$E29,AV$7&lt;=$E29+$F29-1),1,""))</f>
         <v/>
       </c>
       <c r="AW29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AW$7&gt;=$E29,AW$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AW$7&gt;=$E29,AW$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AX$7&gt;=$E29,AX$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AX$7&gt;=$E29,AX$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AY$7&gt;=$E29,AY$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AY$7&gt;=$E29,AY$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",AZ$7&gt;=$E29,AZ$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",AZ$7&gt;=$E29,AZ$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",BA$7&gt;=$E29,BA$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",BA$7&gt;=$E29,BA$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",BB$7&gt;=$E29,BB$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",BB$7&gt;=$E29,BB$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",BC$7&gt;=$E29,BC$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",BC$7&gt;=$E29,BC$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",BD$7&gt;=$E29,BD$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",BD$7&gt;=$E29,BD$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BE29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",BE$7&gt;=$E29,BE$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",BE$7&gt;=$E29,BE$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BF29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",BF$7&gt;=$E29,BF$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",BF$7&gt;=$E29,BF$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ref="BF29:BK34" ca="1" si="21">IF(AND($C29="Goal",BF$7&gt;=$E29,BF$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",BF$7&gt;=$E29,BF$7&lt;=$E29+$F29-1),1,""))</f>
         <v/>
       </c>
       <c r="BG29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",BG$7&gt;=$E29,BG$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",BG$7&gt;=$E29,BG$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",BH$7&gt;=$E29,BH$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",BH$7&gt;=$E29,BH$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",BI$7&gt;=$E29,BI$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",BI$7&gt;=$E29,BI$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",BJ$7&gt;=$E29,BJ$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",BJ$7&gt;=$E29,BJ$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK29" s="13" t="str">
-        <f ca="1">IF(AND($C29="Goal",BK$7&gt;=$E29,BK$7&lt;=$E29+$F29-1),2,IF(AND($C29="Milestone",BK$7&gt;=$E29,BK$7&lt;=$E29+$F29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
@@ -7446,7 +7328,7 @@
         <v>36</v>
       </c>
       <c r="D30" s="17">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E30" s="18">
         <f>DATE(2024, 9, 22)</f>
@@ -7457,227 +7339,227 @@
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",H$7&gt;=$E30,H$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",H$7&gt;=$E30,H$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="I30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",I$7&gt;=$E30,I$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",I$7&gt;=$E30,I$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="J30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",J$7&gt;=$E30,J$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",J$7&gt;=$E30,J$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",K$7&gt;=$E30,K$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",K$7&gt;=$E30,K$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="L30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",L$7&gt;=$E30,L$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",L$7&gt;=$E30,L$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",M$7&gt;=$E30,M$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",M$7&gt;=$E30,M$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="N30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",N$7&gt;=$E30,N$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",N$7&gt;=$E30,N$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="O30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",O$7&gt;=$E30,O$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",O$7&gt;=$E30,O$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="P30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",P$7&gt;=$E30,P$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",P$7&gt;=$E30,P$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Q30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",Q$7&gt;=$E30,Q$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",Q$7&gt;=$E30,Q$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="R30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",R$7&gt;=$E30,R$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",R$7&gt;=$E30,R$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",S$7&gt;=$E30,S$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",S$7&gt;=$E30,S$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",T$7&gt;=$E30,T$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",T$7&gt;=$E30,T$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",U$7&gt;=$E30,U$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",U$7&gt;=$E30,U$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",V$7&gt;=$E30,V$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",V$7&gt;=$E30,V$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",W$7&gt;=$E30,W$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",W$7&gt;=$E30,W$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",X$7&gt;=$E30,X$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",X$7&gt;=$E30,X$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",Y$7&gt;=$E30,Y$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",Y$7&gt;=$E30,Y$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",Z$7&gt;=$E30,Z$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",Z$7&gt;=$E30,Z$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AA30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AA$7&gt;=$E30,AA$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AA$7&gt;=$E30,AA$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AB30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AB$7&gt;=$E30,AB$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AB$7&gt;=$E30,AB$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AC$7&gt;=$E30,AC$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AC$7&gt;=$E30,AC$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AD30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AD$7&gt;=$E30,AD$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AD$7&gt;=$E30,AD$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AE$7&gt;=$E30,AE$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AE$7&gt;=$E30,AE$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AF30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AF$7&gt;=$E30,AF$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AF$7&gt;=$E30,AF$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AG$7&gt;=$E30,AG$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AG$7&gt;=$E30,AG$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AH$7&gt;=$E30,AH$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AH$7&gt;=$E30,AH$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AI$7&gt;=$E30,AI$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AI$7&gt;=$E30,AI$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AJ$7&gt;=$E30,AJ$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AJ$7&gt;=$E30,AJ$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AK30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AK$7&gt;=$E30,AK$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AK$7&gt;=$E30,AK$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AL30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AL$7&gt;=$E30,AL$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AL$7&gt;=$E30,AL$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AM$7&gt;=$E30,AM$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AM$7&gt;=$E30,AM$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AN30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AN$7&gt;=$E30,AN$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AN$7&gt;=$E30,AN$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AO$7&gt;=$E30,AO$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AO$7&gt;=$E30,AO$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AP$7&gt;=$E30,AP$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AP$7&gt;=$E30,AP$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AQ$7&gt;=$E30,AQ$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AQ$7&gt;=$E30,AQ$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AR$7&gt;=$E30,AR$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AR$7&gt;=$E30,AR$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AS$7&gt;=$E30,AS$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AS$7&gt;=$E30,AS$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AT$7&gt;=$E30,AT$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AT$7&gt;=$E30,AT$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AU30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AU$7&gt;=$E30,AU$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AU$7&gt;=$E30,AU$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AV30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AV$7&gt;=$E30,AV$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AV$7&gt;=$E30,AV$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AW$7&gt;=$E30,AW$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AW$7&gt;=$E30,AW$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AX$7&gt;=$E30,AX$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AX$7&gt;=$E30,AX$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AY$7&gt;=$E30,AY$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AY$7&gt;=$E30,AY$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",AZ$7&gt;=$E30,AZ$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",AZ$7&gt;=$E30,AZ$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",BA$7&gt;=$E30,BA$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",BA$7&gt;=$E30,BA$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",BB$7&gt;=$E30,BB$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",BB$7&gt;=$E30,BB$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",BC$7&gt;=$E30,BC$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",BC$7&gt;=$E30,BC$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",BD$7&gt;=$E30,BD$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",BD$7&gt;=$E30,BD$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BE30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",BE$7&gt;=$E30,BE$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",BE$7&gt;=$E30,BE$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BF30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",BF$7&gt;=$E30,BF$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",BF$7&gt;=$E30,BF$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",BG$7&gt;=$E30,BG$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",BG$7&gt;=$E30,BG$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",BH$7&gt;=$E30,BH$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",BH$7&gt;=$E30,BH$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",BI$7&gt;=$E30,BI$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",BI$7&gt;=$E30,BI$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",BJ$7&gt;=$E30,BJ$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",BJ$7&gt;=$E30,BJ$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK30" s="13" t="str">
-        <f ca="1">IF(AND($C30="Goal",BK$7&gt;=$E30,BK$7&lt;=$E30+$F30-1),2,IF(AND($C30="Milestone",BK$7&gt;=$E30,BK$7&lt;=$E30+$F30-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
@@ -7690,7 +7572,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="17">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E31" s="18">
         <f>E30+7</f>
@@ -7701,227 +7583,227 @@
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",H$7&gt;=$E31,H$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",H$7&gt;=$E31,H$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="I31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",I$7&gt;=$E31,I$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",I$7&gt;=$E31,I$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="J31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",J$7&gt;=$E31,J$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",J$7&gt;=$E31,J$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",K$7&gt;=$E31,K$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",K$7&gt;=$E31,K$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="L31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",L$7&gt;=$E31,L$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",L$7&gt;=$E31,L$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",M$7&gt;=$E31,M$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",M$7&gt;=$E31,M$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="N31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",N$7&gt;=$E31,N$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",N$7&gt;=$E31,N$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="O31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",O$7&gt;=$E31,O$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",O$7&gt;=$E31,O$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="P31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",P$7&gt;=$E31,P$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",P$7&gt;=$E31,P$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Q31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",Q$7&gt;=$E31,Q$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",Q$7&gt;=$E31,Q$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="R31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",R$7&gt;=$E31,R$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",R$7&gt;=$E31,R$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",S$7&gt;=$E31,S$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",S$7&gt;=$E31,S$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",T$7&gt;=$E31,T$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",T$7&gt;=$E31,T$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",U$7&gt;=$E31,U$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",U$7&gt;=$E31,U$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",V$7&gt;=$E31,V$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",V$7&gt;=$E31,V$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",W$7&gt;=$E31,W$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",W$7&gt;=$E31,W$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",X$7&gt;=$E31,X$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",X$7&gt;=$E31,X$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",Y$7&gt;=$E31,Y$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",Y$7&gt;=$E31,Y$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",Z$7&gt;=$E31,Z$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",Z$7&gt;=$E31,Z$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AA31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AA$7&gt;=$E31,AA$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AA$7&gt;=$E31,AA$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AB31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AB$7&gt;=$E31,AB$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AB$7&gt;=$E31,AB$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AC$7&gt;=$E31,AC$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AC$7&gt;=$E31,AC$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AD31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AD$7&gt;=$E31,AD$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AD$7&gt;=$E31,AD$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AE$7&gt;=$E31,AE$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AE$7&gt;=$E31,AE$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AF31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AF$7&gt;=$E31,AF$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AF$7&gt;=$E31,AF$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AG$7&gt;=$E31,AG$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AG$7&gt;=$E31,AG$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AH$7&gt;=$E31,AH$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AH$7&gt;=$E31,AH$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AI$7&gt;=$E31,AI$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AI$7&gt;=$E31,AI$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AJ$7&gt;=$E31,AJ$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AJ$7&gt;=$E31,AJ$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AK31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AK$7&gt;=$E31,AK$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AK$7&gt;=$E31,AK$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AL31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AL$7&gt;=$E31,AL$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AL$7&gt;=$E31,AL$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AM$7&gt;=$E31,AM$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AM$7&gt;=$E31,AM$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AN31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AN$7&gt;=$E31,AN$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AN$7&gt;=$E31,AN$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AO$7&gt;=$E31,AO$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AO$7&gt;=$E31,AO$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AP$7&gt;=$E31,AP$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AP$7&gt;=$E31,AP$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AQ$7&gt;=$E31,AQ$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AQ$7&gt;=$E31,AQ$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AR$7&gt;=$E31,AR$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AR$7&gt;=$E31,AR$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AS$7&gt;=$E31,AS$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AS$7&gt;=$E31,AS$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AT$7&gt;=$E31,AT$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AT$7&gt;=$E31,AT$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AU31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AU$7&gt;=$E31,AU$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AU$7&gt;=$E31,AU$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AV31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AV$7&gt;=$E31,AV$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AV$7&gt;=$E31,AV$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AW$7&gt;=$E31,AW$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AW$7&gt;=$E31,AW$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AX$7&gt;=$E31,AX$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AX$7&gt;=$E31,AX$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AY$7&gt;=$E31,AY$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AY$7&gt;=$E31,AY$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",AZ$7&gt;=$E31,AZ$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",AZ$7&gt;=$E31,AZ$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",BA$7&gt;=$E31,BA$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",BA$7&gt;=$E31,BA$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",BB$7&gt;=$E31,BB$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",BB$7&gt;=$E31,BB$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",BC$7&gt;=$E31,BC$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",BC$7&gt;=$E31,BC$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",BD$7&gt;=$E31,BD$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",BD$7&gt;=$E31,BD$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BE31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",BE$7&gt;=$E31,BE$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",BE$7&gt;=$E31,BE$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BF31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",BF$7&gt;=$E31,BF$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",BF$7&gt;=$E31,BF$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",BG$7&gt;=$E31,BG$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",BG$7&gt;=$E31,BG$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",BH$7&gt;=$E31,BH$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",BH$7&gt;=$E31,BH$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",BI$7&gt;=$E31,BI$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",BI$7&gt;=$E31,BI$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",BJ$7&gt;=$E31,BJ$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",BJ$7&gt;=$E31,BJ$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK31" s="13" t="str">
-        <f ca="1">IF(AND($C31="Goal",BK$7&gt;=$E31,BK$7&lt;=$E31+$F31-1),2,IF(AND($C31="Milestone",BK$7&gt;=$E31,BK$7&lt;=$E31+$F31-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
@@ -7937,235 +7819,235 @@
         <v>1</v>
       </c>
       <c r="E32" s="18">
-        <f>E31+7</f>
-        <v>45571</v>
+        <f>E31+13</f>
+        <v>45577</v>
       </c>
       <c r="F32" s="19">
         <v>5</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",H$7&gt;=$E32,H$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",H$7&gt;=$E32,H$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="I32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",I$7&gt;=$E32,I$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",I$7&gt;=$E32,I$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="J32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",J$7&gt;=$E32,J$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",J$7&gt;=$E32,J$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",K$7&gt;=$E32,K$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",K$7&gt;=$E32,K$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="L32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",L$7&gt;=$E32,L$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",L$7&gt;=$E32,L$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",M$7&gt;=$E32,M$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",M$7&gt;=$E32,M$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="N32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",N$7&gt;=$E32,N$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",N$7&gt;=$E32,N$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="O32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",O$7&gt;=$E32,O$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",O$7&gt;=$E32,O$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="P32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",P$7&gt;=$E32,P$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",P$7&gt;=$E32,P$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Q32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",Q$7&gt;=$E32,Q$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",Q$7&gt;=$E32,Q$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="R32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",R$7&gt;=$E32,R$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",R$7&gt;=$E32,R$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",S$7&gt;=$E32,S$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",S$7&gt;=$E32,S$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",T$7&gt;=$E32,T$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",T$7&gt;=$E32,T$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",U$7&gt;=$E32,U$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",U$7&gt;=$E32,U$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",V$7&gt;=$E32,V$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",V$7&gt;=$E32,V$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",W$7&gt;=$E32,W$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",W$7&gt;=$E32,W$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",X$7&gt;=$E32,X$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",X$7&gt;=$E32,X$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",Y$7&gt;=$E32,Y$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",Y$7&gt;=$E32,Y$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",Z$7&gt;=$E32,Z$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",Z$7&gt;=$E32,Z$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AA32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AA$7&gt;=$E32,AA$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AA$7&gt;=$E32,AA$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AB32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AB$7&gt;=$E32,AB$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AB$7&gt;=$E32,AB$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AC$7&gt;=$E32,AC$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AC$7&gt;=$E32,AC$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AD32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AD$7&gt;=$E32,AD$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AD$7&gt;=$E32,AD$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AE$7&gt;=$E32,AE$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AE$7&gt;=$E32,AE$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AF32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AF$7&gt;=$E32,AF$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AF$7&gt;=$E32,AF$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AG$7&gt;=$E32,AG$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AG$7&gt;=$E32,AG$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AH$7&gt;=$E32,AH$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AH$7&gt;=$E32,AH$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AI$7&gt;=$E32,AI$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AI$7&gt;=$E32,AI$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AJ$7&gt;=$E32,AJ$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AJ$7&gt;=$E32,AJ$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AK32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AK$7&gt;=$E32,AK$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AK$7&gt;=$E32,AK$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AL32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AL$7&gt;=$E32,AL$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AL$7&gt;=$E32,AL$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AM$7&gt;=$E32,AM$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AM$7&gt;=$E32,AM$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AN32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AN$7&gt;=$E32,AN$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AN$7&gt;=$E32,AN$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AO$7&gt;=$E32,AO$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AO$7&gt;=$E32,AO$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AP$7&gt;=$E32,AP$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AP$7&gt;=$E32,AP$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AQ$7&gt;=$E32,AQ$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AQ$7&gt;=$E32,AQ$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AR$7&gt;=$E32,AR$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AR$7&gt;=$E32,AR$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AS$7&gt;=$E32,AS$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AS$7&gt;=$E32,AS$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AT$7&gt;=$E32,AT$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AT$7&gt;=$E32,AT$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AU32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AU$7&gt;=$E32,AU$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AU$7&gt;=$E32,AU$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AV32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AV$7&gt;=$E32,AV$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AV$7&gt;=$E32,AV$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AW$7&gt;=$E32,AW$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AW$7&gt;=$E32,AW$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AX$7&gt;=$E32,AX$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AX$7&gt;=$E32,AX$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AY$7&gt;=$E32,AY$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AY$7&gt;=$E32,AY$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",AZ$7&gt;=$E32,AZ$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",AZ$7&gt;=$E32,AZ$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",BA$7&gt;=$E32,BA$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",BA$7&gt;=$E32,BA$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",BB$7&gt;=$E32,BB$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",BB$7&gt;=$E32,BB$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",BC$7&gt;=$E32,BC$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",BC$7&gt;=$E32,BC$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",BD$7&gt;=$E32,BD$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",BD$7&gt;=$E32,BD$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BE32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",BE$7&gt;=$E32,BE$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",BE$7&gt;=$E32,BE$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BF32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",BF$7&gt;=$E32,BF$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",BF$7&gt;=$E32,BF$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",BG$7&gt;=$E32,BG$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",BG$7&gt;=$E32,BG$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",BH$7&gt;=$E32,BH$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",BH$7&gt;=$E32,BH$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",BI$7&gt;=$E32,BI$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",BI$7&gt;=$E32,BI$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",BJ$7&gt;=$E32,BJ$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",BJ$7&gt;=$E32,BJ$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK32" s="13" t="str">
-        <f ca="1">IF(AND($C32="Goal",BK$7&gt;=$E32,BK$7&lt;=$E32+$F32-1),2,IF(AND($C32="Milestone",BK$7&gt;=$E32,BK$7&lt;=$E32+$F32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
@@ -8182,234 +8064,234 @@
       </c>
       <c r="E33" s="18">
         <f>E32+4</f>
-        <v>45575</v>
+        <v>45581</v>
       </c>
       <c r="F33" s="19">
         <v>3</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",H$7&gt;=$E33,H$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",H$7&gt;=$E33,H$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="I33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",I$7&gt;=$E33,I$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",I$7&gt;=$E33,I$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="J33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",J$7&gt;=$E33,J$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",J$7&gt;=$E33,J$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",K$7&gt;=$E33,K$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",K$7&gt;=$E33,K$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="L33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",L$7&gt;=$E33,L$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",L$7&gt;=$E33,L$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",M$7&gt;=$E33,M$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",M$7&gt;=$E33,M$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="N33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",N$7&gt;=$E33,N$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",N$7&gt;=$E33,N$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="O33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",O$7&gt;=$E33,O$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",O$7&gt;=$E33,O$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="P33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",P$7&gt;=$E33,P$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",P$7&gt;=$E33,P$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Q33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",Q$7&gt;=$E33,Q$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",Q$7&gt;=$E33,Q$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="R33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",R$7&gt;=$E33,R$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",R$7&gt;=$E33,R$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",S$7&gt;=$E33,S$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",S$7&gt;=$E33,S$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",T$7&gt;=$E33,T$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",T$7&gt;=$E33,T$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",U$7&gt;=$E33,U$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",U$7&gt;=$E33,U$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",V$7&gt;=$E33,V$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",V$7&gt;=$E33,V$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",W$7&gt;=$E33,W$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",W$7&gt;=$E33,W$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",X$7&gt;=$E33,X$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",X$7&gt;=$E33,X$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",Y$7&gt;=$E33,Y$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",Y$7&gt;=$E33,Y$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",Z$7&gt;=$E33,Z$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",Z$7&gt;=$E33,Z$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AA33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AA$7&gt;=$E33,AA$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AA$7&gt;=$E33,AA$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AB33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AB$7&gt;=$E33,AB$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AB$7&gt;=$E33,AB$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AC$7&gt;=$E33,AC$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AC$7&gt;=$E33,AC$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AD33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AD$7&gt;=$E33,AD$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AD$7&gt;=$E33,AD$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AE$7&gt;=$E33,AE$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AE$7&gt;=$E33,AE$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AF33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AF$7&gt;=$E33,AF$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AF$7&gt;=$E33,AF$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AG$7&gt;=$E33,AG$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AG$7&gt;=$E33,AG$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AH$7&gt;=$E33,AH$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AH$7&gt;=$E33,AH$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AI$7&gt;=$E33,AI$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AI$7&gt;=$E33,AI$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AJ$7&gt;=$E33,AJ$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AJ$7&gt;=$E33,AJ$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AK33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AK$7&gt;=$E33,AK$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AK$7&gt;=$E33,AK$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AL33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AL$7&gt;=$E33,AL$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AL$7&gt;=$E33,AL$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AM$7&gt;=$E33,AM$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AM$7&gt;=$E33,AM$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AN33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AN$7&gt;=$E33,AN$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AN$7&gt;=$E33,AN$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AO$7&gt;=$E33,AO$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AO$7&gt;=$E33,AO$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AP$7&gt;=$E33,AP$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AP$7&gt;=$E33,AP$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AQ$7&gt;=$E33,AQ$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AQ$7&gt;=$E33,AQ$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AR$7&gt;=$E33,AR$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AR$7&gt;=$E33,AR$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AS$7&gt;=$E33,AS$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AS$7&gt;=$E33,AS$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AT$7&gt;=$E33,AT$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AT$7&gt;=$E33,AT$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AU33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AU$7&gt;=$E33,AU$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AU$7&gt;=$E33,AU$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AV33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AV$7&gt;=$E33,AV$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AV$7&gt;=$E33,AV$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AW$7&gt;=$E33,AW$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AW$7&gt;=$E33,AW$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AX$7&gt;=$E33,AX$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AX$7&gt;=$E33,AX$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AY$7&gt;=$E33,AY$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AY$7&gt;=$E33,AY$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",AZ$7&gt;=$E33,AZ$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",AZ$7&gt;=$E33,AZ$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",BA$7&gt;=$E33,BA$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",BA$7&gt;=$E33,BA$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",BB$7&gt;=$E33,BB$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",BB$7&gt;=$E33,BB$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",BC$7&gt;=$E33,BC$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",BC$7&gt;=$E33,BC$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",BD$7&gt;=$E33,BD$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",BD$7&gt;=$E33,BD$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BE33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",BE$7&gt;=$E33,BE$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",BE$7&gt;=$E33,BE$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BF33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",BF$7&gt;=$E33,BF$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",BF$7&gt;=$E33,BF$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",BG$7&gt;=$E33,BG$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",BG$7&gt;=$E33,BG$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",BH$7&gt;=$E33,BH$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",BH$7&gt;=$E33,BH$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",BI$7&gt;=$E33,BI$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",BI$7&gt;=$E33,BI$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",BJ$7&gt;=$E33,BJ$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",BJ$7&gt;=$E33,BJ$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK33" s="13" t="str">
-        <f ca="1">IF(AND($C33="Goal",BK$7&gt;=$E33,BK$7&lt;=$E33+$F33-1),2,IF(AND($C33="Milestone",BK$7&gt;=$E33,BK$7&lt;=$E33+$F33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
@@ -8422,242 +8304,242 @@
         <v>5</v>
       </c>
       <c r="D34" s="17">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E34" s="18">
         <f>E33+3</f>
-        <v>45578</v>
+        <v>45584</v>
       </c>
       <c r="F34" s="19">
         <v>4</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",H$7&gt;=$E34,H$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",H$7&gt;=$E34,H$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="I34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",I$7&gt;=$E34,I$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",I$7&gt;=$E34,I$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="J34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",J$7&gt;=$E34,J$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",J$7&gt;=$E34,J$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",K$7&gt;=$E34,K$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",K$7&gt;=$E34,K$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="L34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",L$7&gt;=$E34,L$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",L$7&gt;=$E34,L$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="M34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",M$7&gt;=$E34,M$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",M$7&gt;=$E34,M$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="N34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",N$7&gt;=$E34,N$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",N$7&gt;=$E34,N$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="O34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",O$7&gt;=$E34,O$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",O$7&gt;=$E34,O$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="P34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",P$7&gt;=$E34,P$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",P$7&gt;=$E34,P$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Q34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",Q$7&gt;=$E34,Q$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",Q$7&gt;=$E34,Q$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="R34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",R$7&gt;=$E34,R$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",R$7&gt;=$E34,R$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",S$7&gt;=$E34,S$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",S$7&gt;=$E34,S$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",T$7&gt;=$E34,T$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",T$7&gt;=$E34,T$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",U$7&gt;=$E34,U$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",U$7&gt;=$E34,U$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",V$7&gt;=$E34,V$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",V$7&gt;=$E34,V$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",W$7&gt;=$E34,W$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",W$7&gt;=$E34,W$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",X$7&gt;=$E34,X$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",X$7&gt;=$E34,X$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",Y$7&gt;=$E34,Y$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",Y$7&gt;=$E34,Y$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",Z$7&gt;=$E34,Z$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",Z$7&gt;=$E34,Z$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AA34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AA$7&gt;=$E34,AA$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AA$7&gt;=$E34,AA$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AB34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AB$7&gt;=$E34,AB$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AB$7&gt;=$E34,AB$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AC$7&gt;=$E34,AC$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AC$7&gt;=$E34,AC$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AD34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AD$7&gt;=$E34,AD$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AD$7&gt;=$E34,AD$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AE$7&gt;=$E34,AE$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AE$7&gt;=$E34,AE$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AF34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AF$7&gt;=$E34,AF$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AF$7&gt;=$E34,AF$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AG$7&gt;=$E34,AG$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AG$7&gt;=$E34,AG$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AH$7&gt;=$E34,AH$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AH$7&gt;=$E34,AH$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AI$7&gt;=$E34,AI$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AI$7&gt;=$E34,AI$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AJ$7&gt;=$E34,AJ$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AJ$7&gt;=$E34,AJ$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AK34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AK$7&gt;=$E34,AK$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AK$7&gt;=$E34,AK$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AL34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AL$7&gt;=$E34,AL$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AL$7&gt;=$E34,AL$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AM$7&gt;=$E34,AM$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AM$7&gt;=$E34,AM$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AN34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AN$7&gt;=$E34,AN$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AN$7&gt;=$E34,AN$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AO$7&gt;=$E34,AO$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AO$7&gt;=$E34,AO$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AP$7&gt;=$E34,AP$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AP$7&gt;=$E34,AP$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AQ$7&gt;=$E34,AQ$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AQ$7&gt;=$E34,AQ$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AR$7&gt;=$E34,AR$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AR$7&gt;=$E34,AR$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AS$7&gt;=$E34,AS$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AS$7&gt;=$E34,AS$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AT$7&gt;=$E34,AT$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AT$7&gt;=$E34,AT$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AU34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AU$7&gt;=$E34,AU$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AU$7&gt;=$E34,AU$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AV34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AV$7&gt;=$E34,AV$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AV$7&gt;=$E34,AV$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AW$7&gt;=$E34,AW$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AW$7&gt;=$E34,AW$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AX$7&gt;=$E34,AX$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AX$7&gt;=$E34,AX$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AY$7&gt;=$E34,AY$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AY$7&gt;=$E34,AY$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",AZ$7&gt;=$E34,AZ$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",AZ$7&gt;=$E34,AZ$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",BA$7&gt;=$E34,BA$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",BA$7&gt;=$E34,BA$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",BB$7&gt;=$E34,BB$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",BB$7&gt;=$E34,BB$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",BC$7&gt;=$E34,BC$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",BC$7&gt;=$E34,BC$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",BD$7&gt;=$E34,BD$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",BD$7&gt;=$E34,BD$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BE34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",BE$7&gt;=$E34,BE$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",BE$7&gt;=$E34,BE$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BF34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",BF$7&gt;=$E34,BF$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",BF$7&gt;=$E34,BF$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",BG$7&gt;=$E34,BG$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",BG$7&gt;=$E34,BG$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",BH$7&gt;=$E34,BH$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",BH$7&gt;=$E34,BH$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",BI$7&gt;=$E34,BI$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",BI$7&gt;=$E34,BI$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",BJ$7&gt;=$E34,BJ$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",BJ$7&gt;=$E34,BJ$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK34" s="13" t="str">
-        <f ca="1">IF(AND($C34="Goal",BK$7&gt;=$E34,BK$7&lt;=$E34+$F34-1),2,IF(AND($C34="Milestone",BK$7&gt;=$E34,BK$7&lt;=$E34+$F34-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:64" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" s="1" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="20"/>
       <c r="C35" s="16"/>
@@ -8670,228 +8552,228 @@
         <v/>
       </c>
       <c r="I35" s="13" t="str">
-        <f t="shared" ref="I35:BK39" ca="1" si="16">IF(AND($C35="Goal",I$7&gt;=$E35,I$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",I$7&gt;=$E35,I$7&lt;=$E35+$F35-1),1,""))</f>
+        <f ca="1">IF(AND($C35="Goal",I$7&gt;=$E35,I$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",I$7&gt;=$E35,I$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="J35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",J$7&gt;=$E35,J$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",J$7&gt;=$E35,J$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="K35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",K$7&gt;=$E35,K$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",K$7&gt;=$E35,K$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="L35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",L$7&gt;=$E35,L$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",L$7&gt;=$E35,L$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="M35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",M$7&gt;=$E35,M$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",M$7&gt;=$E35,M$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="N35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",N$7&gt;=$E35,N$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",N$7&gt;=$E35,N$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="O35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",O$7&gt;=$E35,O$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",O$7&gt;=$E35,O$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="P35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",P$7&gt;=$E35,P$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",P$7&gt;=$E35,P$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="Q35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",Q$7&gt;=$E35,Q$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",Q$7&gt;=$E35,Q$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="R35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",R$7&gt;=$E35,R$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",R$7&gt;=$E35,R$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="S35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",S$7&gt;=$E35,S$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",S$7&gt;=$E35,S$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="T35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",T$7&gt;=$E35,T$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",T$7&gt;=$E35,T$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="U35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",U$7&gt;=$E35,U$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",U$7&gt;=$E35,U$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="V35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",V$7&gt;=$E35,V$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",V$7&gt;=$E35,V$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="W35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",W$7&gt;=$E35,W$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",W$7&gt;=$E35,W$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="X35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",X$7&gt;=$E35,X$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",X$7&gt;=$E35,X$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="Y35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",Y$7&gt;=$E35,Y$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",Y$7&gt;=$E35,Y$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="Z35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",Z$7&gt;=$E35,Z$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",Z$7&gt;=$E35,Z$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AA35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AA$7&gt;=$E35,AA$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AA$7&gt;=$E35,AA$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AB35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AB$7&gt;=$E35,AB$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AB$7&gt;=$E35,AB$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AC35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AC$7&gt;=$E35,AC$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AC$7&gt;=$E35,AC$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AD35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AD$7&gt;=$E35,AD$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AD$7&gt;=$E35,AD$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AE35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AE$7&gt;=$E35,AE$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AE$7&gt;=$E35,AE$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AF35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AF$7&gt;=$E35,AF$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AF$7&gt;=$E35,AF$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AG35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AG$7&gt;=$E35,AG$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AG$7&gt;=$E35,AG$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AH35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AH$7&gt;=$E35,AH$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AH$7&gt;=$E35,AH$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AI35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AI$7&gt;=$E35,AI$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AI$7&gt;=$E35,AI$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AJ$7&gt;=$E35,AJ$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AJ$7&gt;=$E35,AJ$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AK35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AK$7&gt;=$E35,AK$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AK$7&gt;=$E35,AK$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AL35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AL$7&gt;=$E35,AL$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AL$7&gt;=$E35,AL$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AM35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AM$7&gt;=$E35,AM$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AM$7&gt;=$E35,AM$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AN35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AN$7&gt;=$E35,AN$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AN$7&gt;=$E35,AN$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AO35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AO$7&gt;=$E35,AO$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AO$7&gt;=$E35,AO$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AP35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AP$7&gt;=$E35,AP$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AP$7&gt;=$E35,AP$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AQ$7&gt;=$E35,AQ$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AQ$7&gt;=$E35,AQ$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AR35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AR$7&gt;=$E35,AR$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AR$7&gt;=$E35,AR$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AS35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AS$7&gt;=$E35,AS$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AS$7&gt;=$E35,AS$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AT35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AT$7&gt;=$E35,AT$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AT$7&gt;=$E35,AT$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AU35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AU$7&gt;=$E35,AU$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AU$7&gt;=$E35,AU$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AV35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AV$7&gt;=$E35,AV$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AV$7&gt;=$E35,AV$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AW35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AW$7&gt;=$E35,AW$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AW$7&gt;=$E35,AW$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AX35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AX$7&gt;=$E35,AX$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AX$7&gt;=$E35,AX$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AY35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AY$7&gt;=$E35,AY$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AY$7&gt;=$E35,AY$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",AZ$7&gt;=$E35,AZ$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",AZ$7&gt;=$E35,AZ$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="BA35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",BA$7&gt;=$E35,BA$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",BA$7&gt;=$E35,BA$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="BB35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",BB$7&gt;=$E35,BB$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",BB$7&gt;=$E35,BB$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="BC35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",BC$7&gt;=$E35,BC$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",BC$7&gt;=$E35,BC$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="BD35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",BD$7&gt;=$E35,BD$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",BD$7&gt;=$E35,BD$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="BE35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",BE$7&gt;=$E35,BE$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",BE$7&gt;=$E35,BE$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="BF35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",BF$7&gt;=$E35,BF$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",BF$7&gt;=$E35,BF$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="BG35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",BG$7&gt;=$E35,BG$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",BG$7&gt;=$E35,BG$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="BH35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",BH$7&gt;=$E35,BH$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",BH$7&gt;=$E35,BH$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="BI35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",BI$7&gt;=$E35,BI$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",BI$7&gt;=$E35,BI$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",BJ$7&gt;=$E35,BJ$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",BJ$7&gt;=$E35,BJ$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="BK35" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C35="Goal",BK$7&gt;=$E35,BK$7&lt;=$E35+$F35-1),2,IF(AND($C35="Milestone",BK$7&gt;=$E35,BK$7&lt;=$E35+$F35-1),1,""))</f>
         <v/>
       </c>
       <c r="BL35" s="38"/>
     </row>
-    <row r="36" spans="1:64" s="1" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="63"/>
       <c r="C36" s="16"/>
@@ -8900,462 +8782,462 @@
       <c r="F36" s="19"/>
       <c r="G36" s="16"/>
       <c r="H36" s="13" t="str">
-        <f t="shared" ref="H36:W44" ca="1" si="17">IF(AND($C36="Goal",H$7&gt;=$E36,H$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",H$7&gt;=$E36,H$7&lt;=$E36+$F36-1),1,""))</f>
+        <f ca="1">IF(AND($C36="Goal",H$7&gt;=$E36,H$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",H$7&gt;=$E36,H$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="I36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",I$7&gt;=$E36,I$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",I$7&gt;=$E36,I$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="J36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",J$7&gt;=$E36,J$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",J$7&gt;=$E36,J$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="K36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",K$7&gt;=$E36,K$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",K$7&gt;=$E36,K$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="L36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",L$7&gt;=$E36,L$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",L$7&gt;=$E36,L$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="M36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",M$7&gt;=$E36,M$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",M$7&gt;=$E36,M$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="N36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",N$7&gt;=$E36,N$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",N$7&gt;=$E36,N$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="O36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",O$7&gt;=$E36,O$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",O$7&gt;=$E36,O$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="P36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",P$7&gt;=$E36,P$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",P$7&gt;=$E36,P$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="Q36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",Q$7&gt;=$E36,Q$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",Q$7&gt;=$E36,Q$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="R36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",R$7&gt;=$E36,R$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",R$7&gt;=$E36,R$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="S36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",S$7&gt;=$E36,S$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",S$7&gt;=$E36,S$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="T36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",T$7&gt;=$E36,T$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",T$7&gt;=$E36,T$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="U36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",U$7&gt;=$E36,U$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",U$7&gt;=$E36,U$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="V36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",V$7&gt;=$E36,V$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",V$7&gt;=$E36,V$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="W36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",W$7&gt;=$E36,W$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",W$7&gt;=$E36,W$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="X36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",X$7&gt;=$E36,X$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",X$7&gt;=$E36,X$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="Y36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",Y$7&gt;=$E36,Y$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",Y$7&gt;=$E36,Y$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="Z36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",Z$7&gt;=$E36,Z$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",Z$7&gt;=$E36,Z$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AA36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AA$7&gt;=$E36,AA$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AA$7&gt;=$E36,AA$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AB36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AB$7&gt;=$E36,AB$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AB$7&gt;=$E36,AB$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AC36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AC$7&gt;=$E36,AC$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AC$7&gt;=$E36,AC$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AD36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AD$7&gt;=$E36,AD$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AD$7&gt;=$E36,AD$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AE36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AE$7&gt;=$E36,AE$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AE$7&gt;=$E36,AE$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AF36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AF$7&gt;=$E36,AF$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AF$7&gt;=$E36,AF$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AG36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AG$7&gt;=$E36,AG$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AG$7&gt;=$E36,AG$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AH36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AH$7&gt;=$E36,AH$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AH$7&gt;=$E36,AH$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AI36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AI$7&gt;=$E36,AI$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AI$7&gt;=$E36,AI$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AJ$7&gt;=$E36,AJ$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AJ$7&gt;=$E36,AJ$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AK36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AK$7&gt;=$E36,AK$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AK$7&gt;=$E36,AK$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AL36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AL$7&gt;=$E36,AL$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AL$7&gt;=$E36,AL$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AM36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AM$7&gt;=$E36,AM$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AM$7&gt;=$E36,AM$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AN36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AN$7&gt;=$E36,AN$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AN$7&gt;=$E36,AN$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AO36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AO$7&gt;=$E36,AO$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AO$7&gt;=$E36,AO$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AP36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AP$7&gt;=$E36,AP$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AP$7&gt;=$E36,AP$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AQ$7&gt;=$E36,AQ$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AQ$7&gt;=$E36,AQ$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AR36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AR$7&gt;=$E36,AR$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AR$7&gt;=$E36,AR$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AS36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AS$7&gt;=$E36,AS$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AS$7&gt;=$E36,AS$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AT36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AT$7&gt;=$E36,AT$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AT$7&gt;=$E36,AT$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AU36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AU$7&gt;=$E36,AU$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AU$7&gt;=$E36,AU$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AV36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AV$7&gt;=$E36,AV$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AV$7&gt;=$E36,AV$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AW36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AW$7&gt;=$E36,AW$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AW$7&gt;=$E36,AW$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AX36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AX$7&gt;=$E36,AX$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AX$7&gt;=$E36,AX$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AY36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AY$7&gt;=$E36,AY$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AY$7&gt;=$E36,AY$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",AZ$7&gt;=$E36,AZ$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",AZ$7&gt;=$E36,AZ$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="BA36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",BA$7&gt;=$E36,BA$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",BA$7&gt;=$E36,BA$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="BB36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",BB$7&gt;=$E36,BB$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",BB$7&gt;=$E36,BB$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="BC36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",BC$7&gt;=$E36,BC$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",BC$7&gt;=$E36,BC$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="BD36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",BD$7&gt;=$E36,BD$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",BD$7&gt;=$E36,BD$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="BE36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",BE$7&gt;=$E36,BE$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",BE$7&gt;=$E36,BE$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="BF36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",BF$7&gt;=$E36,BF$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",BF$7&gt;=$E36,BF$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="BG36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",BG$7&gt;=$E36,BG$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",BG$7&gt;=$E36,BG$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="BH36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",BH$7&gt;=$E36,BH$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",BH$7&gt;=$E36,BH$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="BI36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",BI$7&gt;=$E36,BI$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",BI$7&gt;=$E36,BI$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",BJ$7&gt;=$E36,BJ$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",BJ$7&gt;=$E36,BJ$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
       <c r="BK36" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C36="Goal",BK$7&gt;=$E36,BK$7&lt;=$E36+$F36-1),2,IF(AND($C36="Milestone",BK$7&gt;=$E36,BK$7&lt;=$E36+$F36-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="77"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="83"/>
       <c r="G37" s="16"/>
       <c r="H37" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C37="Goal",H$7&gt;=$E37,H$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",H$7&gt;=$E37,H$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="I37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",I$7&gt;=$E37,I$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",I$7&gt;=$E37,I$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="J37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",J$7&gt;=$E37,J$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",J$7&gt;=$E37,J$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="K37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",K$7&gt;=$E37,K$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",K$7&gt;=$E37,K$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="L37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",L$7&gt;=$E37,L$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",L$7&gt;=$E37,L$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="M37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",M$7&gt;=$E37,M$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",M$7&gt;=$E37,M$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="N37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",N$7&gt;=$E37,N$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",N$7&gt;=$E37,N$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="O37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",O$7&gt;=$E37,O$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",O$7&gt;=$E37,O$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="P37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",P$7&gt;=$E37,P$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",P$7&gt;=$E37,P$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="Q37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",Q$7&gt;=$E37,Q$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",Q$7&gt;=$E37,Q$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="R37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",R$7&gt;=$E37,R$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",R$7&gt;=$E37,R$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="S37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",S$7&gt;=$E37,S$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",S$7&gt;=$E37,S$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="T37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",T$7&gt;=$E37,T$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",T$7&gt;=$E37,T$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="U37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",U$7&gt;=$E37,U$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",U$7&gt;=$E37,U$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="V37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",V$7&gt;=$E37,V$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",V$7&gt;=$E37,V$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="W37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",W$7&gt;=$E37,W$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",W$7&gt;=$E37,W$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="X37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",X$7&gt;=$E37,X$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",X$7&gt;=$E37,X$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="Y37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",Y$7&gt;=$E37,Y$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",Y$7&gt;=$E37,Y$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="Z37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",Z$7&gt;=$E37,Z$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",Z$7&gt;=$E37,Z$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AA37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AA$7&gt;=$E37,AA$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AA$7&gt;=$E37,AA$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AB37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AB$7&gt;=$E37,AB$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AB$7&gt;=$E37,AB$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AC37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AC$7&gt;=$E37,AC$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AC$7&gt;=$E37,AC$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AD37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AD$7&gt;=$E37,AD$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AD$7&gt;=$E37,AD$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AE37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AE$7&gt;=$E37,AE$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AE$7&gt;=$E37,AE$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AF37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AF$7&gt;=$E37,AF$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AF$7&gt;=$E37,AF$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AG37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AG$7&gt;=$E37,AG$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AG$7&gt;=$E37,AG$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AH37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AH$7&gt;=$E37,AH$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AH$7&gt;=$E37,AH$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AI37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AI$7&gt;=$E37,AI$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AI$7&gt;=$E37,AI$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AJ$7&gt;=$E37,AJ$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AJ$7&gt;=$E37,AJ$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AK37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AK$7&gt;=$E37,AK$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AK$7&gt;=$E37,AK$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AL37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AL$7&gt;=$E37,AL$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AL$7&gt;=$E37,AL$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AM37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AM$7&gt;=$E37,AM$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AM$7&gt;=$E37,AM$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AN37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AN$7&gt;=$E37,AN$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AN$7&gt;=$E37,AN$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AO37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AO$7&gt;=$E37,AO$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AO$7&gt;=$E37,AO$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AP37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AP$7&gt;=$E37,AP$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AP$7&gt;=$E37,AP$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AQ$7&gt;=$E37,AQ$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AQ$7&gt;=$E37,AQ$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AR37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AR$7&gt;=$E37,AR$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AR$7&gt;=$E37,AR$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AS37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AS$7&gt;=$E37,AS$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AS$7&gt;=$E37,AS$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AT37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AT$7&gt;=$E37,AT$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AT$7&gt;=$E37,AT$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AU37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AU$7&gt;=$E37,AU$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AU$7&gt;=$E37,AU$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AV37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AV$7&gt;=$E37,AV$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AV$7&gt;=$E37,AV$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AW37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AW$7&gt;=$E37,AW$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AW$7&gt;=$E37,AW$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AX37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AX$7&gt;=$E37,AX$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AX$7&gt;=$E37,AX$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AY37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AY$7&gt;=$E37,AY$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AY$7&gt;=$E37,AY$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",AZ$7&gt;=$E37,AZ$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",AZ$7&gt;=$E37,AZ$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="BA37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",BA$7&gt;=$E37,BA$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",BA$7&gt;=$E37,BA$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="BB37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",BB$7&gt;=$E37,BB$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",BB$7&gt;=$E37,BB$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="BC37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",BC$7&gt;=$E37,BC$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",BC$7&gt;=$E37,BC$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="BD37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",BD$7&gt;=$E37,BD$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",BD$7&gt;=$E37,BD$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="BE37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",BE$7&gt;=$E37,BE$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",BE$7&gt;=$E37,BE$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="BF37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",BF$7&gt;=$E37,BF$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",BF$7&gt;=$E37,BF$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="BG37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",BG$7&gt;=$E37,BG$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",BG$7&gt;=$E37,BG$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="BH37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",BH$7&gt;=$E37,BH$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",BH$7&gt;=$E37,BH$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="BI37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",BI$7&gt;=$E37,BI$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",BI$7&gt;=$E37,BI$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",BJ$7&gt;=$E37,BJ$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",BJ$7&gt;=$E37,BJ$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
       <c r="BK37" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C37="Goal",BK$7&gt;=$E37,BK$7&lt;=$E37+$F37-1),2,IF(AND($C37="Milestone",BK$7&gt;=$E37,BK$7&lt;=$E37+$F37-1),1,""))</f>
         <v/>
       </c>
     </row>
@@ -9364,1638 +9246,3052 @@
         <v>45</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="17">
         <v>1</v>
       </c>
-      <c r="D38" s="78">
-        <v>1</v>
-      </c>
-      <c r="E38" s="79">
-        <f>DATE(2024, 10, 6)</f>
-        <v>45571</v>
-      </c>
-      <c r="F38" s="80">
+      <c r="E38" s="65">
+        <f>DATE(2024, 10, 24)</f>
+        <v>45589</v>
+      </c>
+      <c r="F38" s="66">
         <v>3</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C38="Goal",H$7&gt;=$E38,H$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",H$7&gt;=$E38,H$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="I38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",I$7&gt;=$E38,I$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",I$7&gt;=$E38,I$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="J38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",J$7&gt;=$E38,J$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",J$7&gt;=$E38,J$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="K38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",K$7&gt;=$E38,K$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",K$7&gt;=$E38,K$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="L38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",L$7&gt;=$E38,L$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",L$7&gt;=$E38,L$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="M38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",M$7&gt;=$E38,M$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",M$7&gt;=$E38,M$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="N38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",N$7&gt;=$E38,N$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",N$7&gt;=$E38,N$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="O38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",O$7&gt;=$E38,O$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",O$7&gt;=$E38,O$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="P38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",P$7&gt;=$E38,P$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",P$7&gt;=$E38,P$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="Q38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",Q$7&gt;=$E38,Q$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",Q$7&gt;=$E38,Q$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="R38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",R$7&gt;=$E38,R$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",R$7&gt;=$E38,R$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="S38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",S$7&gt;=$E38,S$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",S$7&gt;=$E38,S$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="T38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",T$7&gt;=$E38,T$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",T$7&gt;=$E38,T$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="U38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",U$7&gt;=$E38,U$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",U$7&gt;=$E38,U$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="V38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",V$7&gt;=$E38,V$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",V$7&gt;=$E38,V$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="W38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",W$7&gt;=$E38,W$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",W$7&gt;=$E38,W$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="X38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",X$7&gt;=$E38,X$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",X$7&gt;=$E38,X$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="Y38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",Y$7&gt;=$E38,Y$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",Y$7&gt;=$E38,Y$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="Z38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",Z$7&gt;=$E38,Z$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",Z$7&gt;=$E38,Z$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AA38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AA$7&gt;=$E38,AA$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AA$7&gt;=$E38,AA$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AB38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AB$7&gt;=$E38,AB$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AB$7&gt;=$E38,AB$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AC38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AD38" s="13">
-        <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AE38" s="13">
-        <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AF38" s="13">
-        <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <f ca="1">IF(AND($C38="Goal",AC$7&gt;=$E38,AC$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AC$7&gt;=$E38,AC$7&lt;=$E38+$F38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AD38" s="13" t="str">
+        <f ca="1">IF(AND($C38="Goal",AD$7&gt;=$E38,AD$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AD$7&gt;=$E38,AD$7&lt;=$E38+$F38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AE38" s="13" t="str">
+        <f ca="1">IF(AND($C38="Goal",AE$7&gt;=$E38,AE$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AE$7&gt;=$E38,AE$7&lt;=$E38+$F38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AF38" s="13" t="str">
+        <f ca="1">IF(AND($C38="Goal",AF$7&gt;=$E38,AF$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AF$7&gt;=$E38,AF$7&lt;=$E38+$F38-1),1,""))</f>
+        <v/>
       </c>
       <c r="AG38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AG$7&gt;=$E38,AG$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AG$7&gt;=$E38,AG$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AH38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AH$7&gt;=$E38,AH$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AH$7&gt;=$E38,AH$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AI38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AI$7&gt;=$E38,AI$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AI$7&gt;=$E38,AI$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AJ$7&gt;=$E38,AJ$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AJ$7&gt;=$E38,AJ$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AK38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AK$7&gt;=$E38,AK$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AK$7&gt;=$E38,AK$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AL38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AL$7&gt;=$E38,AL$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AL$7&gt;=$E38,AL$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AM38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AM$7&gt;=$E38,AM$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AM$7&gt;=$E38,AM$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AN38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AN$7&gt;=$E38,AN$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AN$7&gt;=$E38,AN$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AO38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AO$7&gt;=$E38,AO$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AO$7&gt;=$E38,AO$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AP38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AP$7&gt;=$E38,AP$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AP$7&gt;=$E38,AP$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AQ$7&gt;=$E38,AQ$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AQ$7&gt;=$E38,AQ$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AR38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AR$7&gt;=$E38,AR$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AR$7&gt;=$E38,AR$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AS38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AS$7&gt;=$E38,AS$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AS$7&gt;=$E38,AS$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AT38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AT$7&gt;=$E38,AT$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AT$7&gt;=$E38,AT$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AU38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AU$7&gt;=$E38,AU$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AU$7&gt;=$E38,AU$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AV38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AV$7&gt;=$E38,AV$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AV$7&gt;=$E38,AV$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AW38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AW$7&gt;=$E38,AW$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AW$7&gt;=$E38,AW$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AX38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AX$7&gt;=$E38,AX$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AX$7&gt;=$E38,AX$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AY38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AY$7&gt;=$E38,AY$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AY$7&gt;=$E38,AY$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",AZ$7&gt;=$E38,AZ$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",AZ$7&gt;=$E38,AZ$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="BA38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",BA$7&gt;=$E38,BA$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",BA$7&gt;=$E38,BA$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="BB38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",BB$7&gt;=$E38,BB$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",BB$7&gt;=$E38,BB$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="BC38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",BC$7&gt;=$E38,BC$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",BC$7&gt;=$E38,BC$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="BD38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",BD$7&gt;=$E38,BD$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",BD$7&gt;=$E38,BD$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="BE38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",BE$7&gt;=$E38,BE$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",BE$7&gt;=$E38,BE$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="BF38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",BF$7&gt;=$E38,BF$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",BF$7&gt;=$E38,BF$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="BG38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",BG$7&gt;=$E38,BG$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",BG$7&gt;=$E38,BG$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="BH38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",BH$7&gt;=$E38,BH$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",BH$7&gt;=$E38,BH$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="BI38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",BI$7&gt;=$E38,BI$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",BI$7&gt;=$E38,BI$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",BJ$7&gt;=$E38,BJ$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",BJ$7&gt;=$E38,BJ$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
       <c r="BK38" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C38="Goal",BK$7&gt;=$E38,BK$7&lt;=$E38+$F38-1),2,IF(AND($C38="Milestone",BK$7&gt;=$E38,BK$7&lt;=$E38+$F38-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:64" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="75">
-        <v>0.4</v>
-      </c>
-      <c r="E39" s="76">
+      <c r="D39" s="17">
+        <v>1</v>
+      </c>
+      <c r="E39" s="82">
         <f>E38+2</f>
-        <v>45573</v>
-      </c>
-      <c r="F39" s="77">
+        <v>45591</v>
+      </c>
+      <c r="F39" s="83">
         <v>5</v>
       </c>
       <c r="H39" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C39="Goal",H$7&gt;=$E39,H$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",H$7&gt;=$E39,H$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="I39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",I$7&gt;=$E39,I$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",I$7&gt;=$E39,I$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="J39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",J$7&gt;=$E39,J$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",J$7&gt;=$E39,J$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="K39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",K$7&gt;=$E39,K$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",K$7&gt;=$E39,K$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="L39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",L$7&gt;=$E39,L$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",L$7&gt;=$E39,L$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="M39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",M$7&gt;=$E39,M$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",M$7&gt;=$E39,M$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="N39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",N$7&gt;=$E39,N$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",N$7&gt;=$E39,N$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="O39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",O$7&gt;=$E39,O$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",O$7&gt;=$E39,O$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="P39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",P$7&gt;=$E39,P$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",P$7&gt;=$E39,P$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="Q39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",Q$7&gt;=$E39,Q$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",Q$7&gt;=$E39,Q$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="R39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",R$7&gt;=$E39,R$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",R$7&gt;=$E39,R$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="S39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",S$7&gt;=$E39,S$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",S$7&gt;=$E39,S$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="T39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",T$7&gt;=$E39,T$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",T$7&gt;=$E39,T$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="U39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",U$7&gt;=$E39,U$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",U$7&gt;=$E39,U$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="V39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",V$7&gt;=$E39,V$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",V$7&gt;=$E39,V$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="W39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",W$7&gt;=$E39,W$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",W$7&gt;=$E39,W$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="X39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",X$7&gt;=$E39,X$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",X$7&gt;=$E39,X$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="Y39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",Y$7&gt;=$E39,Y$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",Y$7&gt;=$E39,Y$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="Z39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",Z$7&gt;=$E39,Z$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",Z$7&gt;=$E39,Z$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AA39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",AA$7&gt;=$E39,AA$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AA$7&gt;=$E39,AA$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AB39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",AB$7&gt;=$E39,AB$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AB$7&gt;=$E39,AB$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AC39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",AC$7&gt;=$E39,AC$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AC$7&gt;=$E39,AC$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AD39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",AD$7&gt;=$E39,AD$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AD$7&gt;=$E39,AD$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AE39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",AE$7&gt;=$E39,AE$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AE$7&gt;=$E39,AE$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AF39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",AF$7&gt;=$E39,AF$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AF$7&gt;=$E39,AF$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AG39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",AG$7&gt;=$E39,AG$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AG$7&gt;=$E39,AG$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AH39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",AH$7&gt;=$E39,AH$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AH$7&gt;=$E39,AH$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AI39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",AI$7&gt;=$E39,AI$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AI$7&gt;=$E39,AI$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",AJ$7&gt;=$E39,AJ$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AJ$7&gt;=$E39,AJ$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AK39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",AK$7&gt;=$E39,AK$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AK$7&gt;=$E39,AK$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AL39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",AL$7&gt;=$E39,AL$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AL$7&gt;=$E39,AL$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AM39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",AM$7&gt;=$E39,AM$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AM$7&gt;=$E39,AM$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AN39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",AN$7&gt;=$E39,AN$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AN$7&gt;=$E39,AN$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AO39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",AO$7&gt;=$E39,AO$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AO$7&gt;=$E39,AO$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AP39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",AP$7&gt;=$E39,AP$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AP$7&gt;=$E39,AP$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ39" s="13" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C39="Goal",AQ$7&gt;=$E39,AQ$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AQ$7&gt;=$E39,AQ$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AR39" s="13" t="str">
-        <f t="shared" ref="AR39:BG44" ca="1" si="18">IF(AND($C39="Goal",AR$7&gt;=$E39,AR$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AR$7&gt;=$E39,AR$7&lt;=$E39+$F39-1),1,""))</f>
+        <f ca="1">IF(AND($C39="Goal",AR$7&gt;=$E39,AR$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AR$7&gt;=$E39,AR$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AS39" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C39="Goal",AS$7&gt;=$E39,AS$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AS$7&gt;=$E39,AS$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AT39" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C39="Goal",AT$7&gt;=$E39,AT$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AT$7&gt;=$E39,AT$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AU39" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C39="Goal",AU$7&gt;=$E39,AU$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AU$7&gt;=$E39,AU$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AV39" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C39="Goal",AV$7&gt;=$E39,AV$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AV$7&gt;=$E39,AV$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AW39" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C39="Goal",AW$7&gt;=$E39,AW$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AW$7&gt;=$E39,AW$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AX39" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C39="Goal",AX$7&gt;=$E39,AX$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AX$7&gt;=$E39,AX$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AY39" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C39="Goal",AY$7&gt;=$E39,AY$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AY$7&gt;=$E39,AY$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ39" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C39="Goal",AZ$7&gt;=$E39,AZ$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",AZ$7&gt;=$E39,AZ$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="BA39" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C39="Goal",BA$7&gt;=$E39,BA$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",BA$7&gt;=$E39,BA$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="BB39" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C39="Goal",BB$7&gt;=$E39,BB$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",BB$7&gt;=$E39,BB$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="BC39" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C39="Goal",BC$7&gt;=$E39,BC$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",BC$7&gt;=$E39,BC$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="BD39" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C39="Goal",BD$7&gt;=$E39,BD$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",BD$7&gt;=$E39,BD$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="BE39" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C39="Goal",BE$7&gt;=$E39,BE$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",BE$7&gt;=$E39,BE$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="BF39" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C39="Goal",BF$7&gt;=$E39,BF$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",BF$7&gt;=$E39,BF$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="BG39" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C39="Goal",BG$7&gt;=$E39,BG$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",BG$7&gt;=$E39,BG$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="BH39" s="13" t="str">
-        <f t="shared" ref="BH39:BK44" ca="1" si="19">IF(AND($C39="Goal",BH$7&gt;=$E39,BH$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",BH$7&gt;=$E39,BH$7&lt;=$E39+$F39-1),1,""))</f>
+        <f ca="1">IF(AND($C39="Goal",BH$7&gt;=$E39,BH$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",BH$7&gt;=$E39,BH$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="BI39" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(AND($C39="Goal",BI$7&gt;=$E39,BI$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",BI$7&gt;=$E39,BI$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ39" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(AND($C39="Goal",BJ$7&gt;=$E39,BJ$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",BJ$7&gt;=$E39,BJ$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
       <c r="BK39" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(AND($C39="Goal",BK$7&gt;=$E39,BK$7&lt;=$E39+$F39-1),2,IF(AND($C39="Milestone",BK$7&gt;=$E39,BK$7&lt;=$E39+$F39-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:64" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="20"/>
       <c r="C40" s="16"/>
-      <c r="D40" s="78">
-        <v>0</v>
-      </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="80">
-        <v>0</v>
-      </c>
+      <c r="D40" s="64"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
       <c r="H40" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C40="Goal",H$7&gt;=$E40,H$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",H$7&gt;=$E40,H$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="I40" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C40="Goal",I$7&gt;=$E40,I$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",I$7&gt;=$E40,I$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="J40" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C40="Goal",J$7&gt;=$E40,J$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",J$7&gt;=$E40,J$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="K40" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C40="Goal",K$7&gt;=$E40,K$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",K$7&gt;=$E40,K$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="L40" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C40="Goal",L$7&gt;=$E40,L$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",L$7&gt;=$E40,L$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="M40" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C40="Goal",M$7&gt;=$E40,M$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",M$7&gt;=$E40,M$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="N40" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C40="Goal",N$7&gt;=$E40,N$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",N$7&gt;=$E40,N$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="O40" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C40="Goal",O$7&gt;=$E40,O$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",O$7&gt;=$E40,O$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="P40" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C40="Goal",P$7&gt;=$E40,P$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",P$7&gt;=$E40,P$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="Q40" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C40="Goal",Q$7&gt;=$E40,Q$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",Q$7&gt;=$E40,Q$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="R40" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C40="Goal",R$7&gt;=$E40,R$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",R$7&gt;=$E40,R$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="S40" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C40="Goal",S$7&gt;=$E40,S$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",S$7&gt;=$E40,S$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="T40" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C40="Goal",T$7&gt;=$E40,T$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",T$7&gt;=$E40,T$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="U40" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C40="Goal",U$7&gt;=$E40,U$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",U$7&gt;=$E40,U$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="V40" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C40="Goal",V$7&gt;=$E40,V$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",V$7&gt;=$E40,V$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="W40" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C40="Goal",W$7&gt;=$E40,W$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",W$7&gt;=$E40,W$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="X40" s="13" t="str">
-        <f t="shared" ref="X40:AM44" ca="1" si="20">IF(AND($C40="Goal",X$7&gt;=$E40,X$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",X$7&gt;=$E40,X$7&lt;=$E40+$F40-1),1,""))</f>
+        <f ca="1">IF(AND($C40="Goal",X$7&gt;=$E40,X$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",X$7&gt;=$E40,X$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="Y40" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C40="Goal",Y$7&gt;=$E40,Y$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",Y$7&gt;=$E40,Y$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="Z40" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C40="Goal",Z$7&gt;=$E40,Z$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",Z$7&gt;=$E40,Z$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AA40" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C40="Goal",AA$7&gt;=$E40,AA$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AA$7&gt;=$E40,AA$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AB40" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C40="Goal",AB$7&gt;=$E40,AB$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AB$7&gt;=$E40,AB$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AC40" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C40="Goal",AC$7&gt;=$E40,AC$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AC$7&gt;=$E40,AC$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AD40" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C40="Goal",AD$7&gt;=$E40,AD$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AD$7&gt;=$E40,AD$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AE40" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C40="Goal",AE$7&gt;=$E40,AE$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AE$7&gt;=$E40,AE$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AF40" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C40="Goal",AF$7&gt;=$E40,AF$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AF$7&gt;=$E40,AF$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AG40" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C40="Goal",AG$7&gt;=$E40,AG$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AG$7&gt;=$E40,AG$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AH40" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C40="Goal",AH$7&gt;=$E40,AH$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AH$7&gt;=$E40,AH$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AI40" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C40="Goal",AI$7&gt;=$E40,AI$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AI$7&gt;=$E40,AI$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ40" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C40="Goal",AJ$7&gt;=$E40,AJ$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AJ$7&gt;=$E40,AJ$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AK40" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C40="Goal",AK$7&gt;=$E40,AK$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AK$7&gt;=$E40,AK$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AL40" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C40="Goal",AL$7&gt;=$E40,AL$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AL$7&gt;=$E40,AL$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AM40" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f ca="1">IF(AND($C40="Goal",AM$7&gt;=$E40,AM$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AM$7&gt;=$E40,AM$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AN40" s="13" t="str">
-        <f t="shared" ref="AN40:BC44" ca="1" si="21">IF(AND($C40="Goal",AN$7&gt;=$E40,AN$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AN$7&gt;=$E40,AN$7&lt;=$E40+$F40-1),1,""))</f>
+        <f ca="1">IF(AND($C40="Goal",AN$7&gt;=$E40,AN$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AN$7&gt;=$E40,AN$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AO40" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(AND($C40="Goal",AO$7&gt;=$E40,AO$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AO$7&gt;=$E40,AO$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AP40" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(AND($C40="Goal",AP$7&gt;=$E40,AP$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AP$7&gt;=$E40,AP$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ40" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(AND($C40="Goal",AQ$7&gt;=$E40,AQ$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AQ$7&gt;=$E40,AQ$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AR40" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(AND($C40="Goal",AR$7&gt;=$E40,AR$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AR$7&gt;=$E40,AR$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AS40" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(AND($C40="Goal",AS$7&gt;=$E40,AS$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AS$7&gt;=$E40,AS$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AT40" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(AND($C40="Goal",AT$7&gt;=$E40,AT$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AT$7&gt;=$E40,AT$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AU40" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(AND($C40="Goal",AU$7&gt;=$E40,AU$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AU$7&gt;=$E40,AU$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AV40" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(AND($C40="Goal",AV$7&gt;=$E40,AV$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AV$7&gt;=$E40,AV$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AW40" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(AND($C40="Goal",AW$7&gt;=$E40,AW$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AW$7&gt;=$E40,AW$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AX40" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(AND($C40="Goal",AX$7&gt;=$E40,AX$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AX$7&gt;=$E40,AX$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AY40" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(AND($C40="Goal",AY$7&gt;=$E40,AY$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AY$7&gt;=$E40,AY$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ40" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(AND($C40="Goal",AZ$7&gt;=$E40,AZ$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",AZ$7&gt;=$E40,AZ$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="BA40" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(AND($C40="Goal",BA$7&gt;=$E40,BA$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",BA$7&gt;=$E40,BA$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="BB40" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(AND($C40="Goal",BB$7&gt;=$E40,BB$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",BB$7&gt;=$E40,BB$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="BC40" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(AND($C40="Goal",BC$7&gt;=$E40,BC$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",BC$7&gt;=$E40,BC$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="BD40" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C40="Goal",BD$7&gt;=$E40,BD$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",BD$7&gt;=$E40,BD$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="BE40" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C40="Goal",BE$7&gt;=$E40,BE$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",BE$7&gt;=$E40,BE$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="BF40" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C40="Goal",BF$7&gt;=$E40,BF$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",BF$7&gt;=$E40,BF$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="BG40" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C40="Goal",BG$7&gt;=$E40,BG$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",BG$7&gt;=$E40,BG$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="BH40" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(AND($C40="Goal",BH$7&gt;=$E40,BH$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",BH$7&gt;=$E40,BH$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="BI40" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(AND($C40="Goal",BI$7&gt;=$E40,BI$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",BI$7&gt;=$E40,BI$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ40" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(AND($C40="Goal",BJ$7&gt;=$E40,BJ$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",BJ$7&gt;=$E40,BJ$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
       <c r="BK40" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(AND($C40="Goal",BK$7&gt;=$E40,BK$7&lt;=$E40+$F40-1),2,IF(AND($C40="Milestone",BK$7&gt;=$E40,BK$7&lt;=$E40+$F40-1),1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:64" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="82"/>
+    <row r="41" spans="1:64" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="60" t="s">
+        <v>47</v>
+      </c>
       <c r="C41" s="36"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="84"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="69"/>
       <c r="H41" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ref="H41:W50" ca="1" si="22">IF(AND($C41="Goal",H$7&gt;=$E41,H$7&lt;=$E41+$F41-1),2,IF(AND($C41="Milestone",H$7&gt;=$E41,H$7&lt;=$E41+$F41-1),1,""))</f>
         <v/>
       </c>
       <c r="I41" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="J41" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K41" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="L41" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="M41" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="N41" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="O41" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="P41" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="Q41" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="R41" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="S41" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="T41" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="U41" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="V41" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="W41" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="X41" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ref="X41:AM50" ca="1" si="23">IF(AND($C41="Goal",X$7&gt;=$E41,X$7&lt;=$E41+$F41-1),2,IF(AND($C41="Milestone",X$7&gt;=$E41,X$7&lt;=$E41+$F41-1),1,""))</f>
         <v/>
       </c>
       <c r="Y41" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="Z41" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AA41" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AB41" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AC41" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AD41" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AE41" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AF41" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AG41" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AH41" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AI41" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AJ41" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AK41" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AL41" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AM41" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AN41" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ref="AN41:BC50" ca="1" si="24">IF(AND($C41="Goal",AN$7&gt;=$E41,AN$7&lt;=$E41+$F41-1),2,IF(AND($C41="Milestone",AN$7&gt;=$E41,AN$7&lt;=$E41+$F41-1),1,""))</f>
         <v/>
       </c>
       <c r="AO41" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AP41" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AQ41" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AR41" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AS41" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AT41" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AU41" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AV41" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AW41" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AX41" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AY41" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AZ41" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BA41" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BB41" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BC41" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BD41" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ref="BD41:BK50" ca="1" si="25">IF(AND($C41="Goal",BD$7&gt;=$E41,BD$7&lt;=$E41+$F41-1),2,IF(AND($C41="Milestone",BD$7&gt;=$E41,BD$7&lt;=$E41+$F41-1),1,""))</f>
         <v/>
       </c>
       <c r="BE41" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BF41" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BG41" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BH41" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ref="BH41:BK42" ca="1" si="26">IF(AND($C41="Goal",BH$7&gt;=$E41,BH$7&lt;=$E41+$F41-1),2,IF(AND($C41="Milestone",BH$7&gt;=$E41,BH$7&lt;=$E41+$F41-1),1,""))</f>
         <v/>
       </c>
       <c r="BI41" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BJ41" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BK41" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:64" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="82"/>
-      <c r="C42" s="36"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="84"/>
+    <row r="42" spans="1:64" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="17">
+        <v>1</v>
+      </c>
+      <c r="E42" s="65">
+        <f>DATE(2024, 11, 1)</f>
+        <v>45597</v>
+      </c>
+      <c r="F42" s="66">
+        <v>7</v>
+      </c>
       <c r="H42" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="I42" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="J42" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K42" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="L42" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="M42" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="N42" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="O42" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="P42" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="Q42" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="R42" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="S42" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="T42" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="U42" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="V42" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="W42" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="X42" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="Y42" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="Z42" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AA42" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AB42" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AC42" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AD42" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AE42" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AF42" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AG42" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AH42" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AI42" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AJ42" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AK42" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AL42" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AM42" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AN42" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AO42" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AP42" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AQ42" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AR42" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AS42" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AT42" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AU42" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AV42" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AW42" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AX42" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AY42" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AZ42" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BA42" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BB42" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BC42" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BD42" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="BE42" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="BF42" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="BG42" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="BH42" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BB42" s="13">
+        <f t="shared" ca="1" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="BC42" s="13">
+        <f t="shared" ca="1" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="BD42" s="13">
+        <f t="shared" ca="1" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="BE42" s="13">
+        <f t="shared" ca="1" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="BF42" s="13">
+        <f t="shared" ca="1" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="BG42" s="13">
+        <f t="shared" ca="1" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="BH42" s="13">
+        <f t="shared" ca="1" si="26"/>
+        <v>2</v>
       </c>
       <c r="BI42" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BJ42" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BK42" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="82"/>
-      <c r="C43" s="36"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="84"/>
+    <row r="43" spans="1:64" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="17">
+        <v>1</v>
+      </c>
+      <c r="E43" s="82">
+        <f>E42+5</f>
+        <v>45602</v>
+      </c>
+      <c r="F43" s="83">
+        <v>3</v>
+      </c>
       <c r="H43" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="I43" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="J43" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C43="Goal",J$7&gt;=$E43,J$7&lt;=$E43+$F43-1),2,IF(AND($C43="Milestone",J$7&gt;=$E43,J$7&lt;=$E43+$F43-1),1,""))</f>
         <v/>
       </c>
       <c r="K43" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="L43" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="M43" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="N43" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="O43" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="P43" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="Q43" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="R43" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="S43" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="T43" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="U43" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="V43" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="W43" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="X43" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="Y43" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="Z43" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AA43" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AB43" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AC43" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AD43" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AE43" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AF43" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AG43" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AH43" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AI43" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AJ43" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AK43" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AL43" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AM43" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AN43" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AO43" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AP43" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AQ43" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AR43" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AS43" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AT43" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AU43" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AV43" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AW43" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AX43" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AY43" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AZ43" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BA43" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BB43" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BC43" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BD43" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BE43" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BF43" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BG43" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BH43" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BI43" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BJ43" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BK43" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="82"/>
-      <c r="C44" s="36"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="84"/>
+    <row r="44" spans="1:64" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="17">
+        <v>1</v>
+      </c>
+      <c r="E44" s="82">
+        <f>E43+3</f>
+        <v>45605</v>
+      </c>
+      <c r="F44" s="83">
+        <v>7</v>
+      </c>
       <c r="H44" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="I44" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="J44" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K44" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="L44" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="M44" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="N44" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="O44" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="P44" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="Q44" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="R44" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="S44" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="T44" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="U44" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="V44" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="W44" s="13" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="X44" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="Y44" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="Z44" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AA44" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AB44" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AC44" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AD44" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AE44" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AF44" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AG44" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AH44" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AI44" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AJ44" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AK44" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AL44" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AM44" s="13" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AN44" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AO44" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AP44" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AQ44" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AR44" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AS44" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AT44" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AU44" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AV44" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AW44" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AX44" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AY44" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AZ44" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BA44" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BB44" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BC44" s="13" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BD44" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BE44" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BF44" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BG44" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BH44" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BI44" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BJ44" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BK44" s="13" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:64" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="67"/>
+      <c r="C45" s="36"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="69"/>
+      <c r="H45" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="I45" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="J45" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="K45" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="L45" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="M45" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="N45" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O45" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="P45" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Q45" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="R45" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="S45" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="T45" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="U45" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="V45" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="W45" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="X45" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="Y45" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="Z45" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AA45" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AB45" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AC45" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AD45" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AE45" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AF45" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AG45" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AH45" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AI45" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AJ45" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AK45" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AL45" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AM45" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AN45" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AO45" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AP45" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ45" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AR45" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AS45" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AT45" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AU45" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AV45" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AW45" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AX45" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AY45" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AZ45" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BA45" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BB45" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BC45" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BD45" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BE45" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BF45" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BG45" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BH45" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BI45" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BJ45" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BK45" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:64" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="67"/>
+      <c r="C46" s="36"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="69"/>
+      <c r="H46" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="I46" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="J46" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="K46" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="L46" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="M46" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="N46" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O46" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="P46" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Q46" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="R46" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="S46" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="T46" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="U46" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="V46" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="W46" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="X46" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="Y46" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="Z46" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AA46" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AB46" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AC46" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AD46" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AE46" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AF46" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AG46" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AH46" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AI46" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AJ46" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AK46" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AL46" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AM46" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AN46" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AO46" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AP46" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ46" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AR46" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AS46" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AT46" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AU46" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AV46" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AW46" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AX46" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AY46" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AZ46" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BA46" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BB46" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BC46" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BD46" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BE46" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BF46" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BG46" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BH46" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BI46" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BJ46" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BK46" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:64" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="67"/>
+      <c r="C47" s="36"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="69"/>
+      <c r="H47" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="I47" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="J47" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="K47" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="L47" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="M47" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="N47" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O47" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="P47" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Q47" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="R47" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="S47" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="T47" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="U47" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="V47" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="W47" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="X47" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="Y47" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="Z47" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AA47" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AB47" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AC47" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AD47" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AE47" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AF47" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AG47" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AH47" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AI47" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AJ47" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AK47" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AL47" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AM47" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AN47" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AO47" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AP47" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ47" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AR47" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AS47" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AT47" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AU47" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AV47" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AW47" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AX47" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AY47" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AZ47" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BA47" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BB47" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BC47" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BD47" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BE47" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BF47" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BG47" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BH47" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BI47" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BJ47" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BK47" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:64" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="67"/>
+      <c r="C48" s="36"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="69"/>
+      <c r="H48" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="I48" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="J48" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="K48" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="L48" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="M48" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="N48" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O48" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="P48" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Q48" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="R48" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="S48" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="T48" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="U48" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="V48" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="W48" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="X48" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="Y48" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="Z48" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AA48" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AB48" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AC48" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AD48" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AE48" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AF48" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AG48" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AH48" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AI48" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AJ48" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AK48" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AL48" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AM48" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AN48" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AO48" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AP48" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ48" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AR48" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AS48" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AT48" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AU48" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AV48" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AW48" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AX48" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AY48" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AZ48" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BA48" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BB48" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BC48" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BD48" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BE48" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BF48" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BG48" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BH48" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BI48" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BJ48" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BK48" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:63" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="67"/>
+      <c r="C49" s="36"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="69"/>
+      <c r="H49" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="I49" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="J49" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="K49" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="L49" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="M49" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="N49" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O49" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="P49" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Q49" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="R49" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="S49" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="T49" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="U49" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="V49" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="W49" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="X49" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="Y49" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="Z49" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AA49" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AB49" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AC49" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AD49" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AE49" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AF49" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AG49" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AH49" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AI49" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AJ49" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AK49" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AL49" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AM49" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AN49" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AO49" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AP49" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ49" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AR49" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AS49" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AT49" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AU49" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AV49" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AW49" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AX49" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AY49" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AZ49" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BA49" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BB49" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BC49" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BD49" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BE49" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BF49" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BG49" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BH49" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BI49" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BJ49" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BK49" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:63" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="67"/>
+      <c r="C50" s="36"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="69"/>
+      <c r="H50" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="I50" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="J50" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="K50" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="L50" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="M50" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="N50" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="O50" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="P50" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Q50" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="R50" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="S50" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="T50" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="U50" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="V50" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="W50" s="13" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="X50" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="Y50" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="Z50" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AA50" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AB50" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AC50" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AD50" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AE50" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AF50" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AG50" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AH50" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AI50" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AJ50" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AK50" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AL50" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AM50" s="13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AN50" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AO50" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AP50" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ50" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AR50" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AS50" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AT50" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AU50" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AV50" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AW50" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AX50" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AY50" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AZ50" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BA50" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BB50" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BC50" s="13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BD50" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BE50" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BF50" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BG50" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BH50" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BI50" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BJ50" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="BK50" s="13" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
     </row>
@@ -11009,8 +12305,8 @@
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="R4:U4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D9:D36 D41:D44">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="D9:D36 D41">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11024,40 +12320,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:AL6">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>H$7&lt;=EOMONTH($H$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BK6">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>AND(H$7&lt;=EOMONTH($H$7,1),H$7&gt;EOMONTH($H$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BK44">
-    <cfRule type="expression" dxfId="11" priority="1">
+  <conditionalFormatting sqref="H7:BK50">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>AND(TODAY()&gt;=H$7,TODAY()&lt;I$7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:BK44">
-    <cfRule type="expression" dxfId="10" priority="19" stopIfTrue="1">
+  <conditionalFormatting sqref="I6:BK6">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND(I$7&lt;=EOMONTH($H$7,2),I$7&gt;EOMONTH($H$7,0),I$7&gt;EOMONTH($H$7,1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:BK50">
+    <cfRule type="expression" dxfId="4" priority="31" stopIfTrue="1">
       <formula>AND($C10="Low Risk",H$7&gt;=$E10,H$7&lt;=$E10+$F10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="32" stopIfTrue="1">
       <formula>AND($C10="High Risk",H$7&gt;=$E10,H$7&lt;=$E10+$F10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="33" stopIfTrue="1">
       <formula>AND($C10="On Track",H$7&gt;=$E10,H$7&lt;=$E10+$F10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="34" stopIfTrue="1">
       <formula>AND($C10="Med Risk",H$7&gt;=$E10,H$7&lt;=$E10+$F10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="35" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,H$7&gt;=$E10,H$7&lt;=$E10+$F10-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:BK6">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>AND(I$7&lt;=EOMONTH($H$7,2),I$7&gt;EOMONTH($H$7,0),I$7&gt;EOMONTH($H$7,1))</formula>
+  <conditionalFormatting sqref="D42:D44">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7CD6A943-F47A-4622-B932-EDFA1A3455FF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C25F7A7C-DAAE-4004-B89D-4BFDA43E7607}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D3AB7408-25A2-4120-9712-19E7EDE8A2DC}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
@@ -11136,10 +12474,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D9:D36 D41:D44</xm:sqref>
+          <xm:sqref>D9:D36 D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{67763332-2AE9-4F93-8BB7-5ECDB6B99BA2}">
+          <x14:cfRule type="iconSet" priority="30" id="{67763332-2AE9-4F93-8BB7-5ECDB6B99BA2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11155,7 +12493,52 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H10:BK44</xm:sqref>
+          <xm:sqref>H10:BK50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7CD6A943-F47A-4622-B932-EDFA1A3455FF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D42:D44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C25F7A7C-DAAE-4004-B89D-4BFDA43E7607}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D3AB7408-25A2-4120-9712-19E7EDE8A2DC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11164,6 +12547,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11463,36 +12875,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16A2ABA2-2AE7-458F-84A6-54746C92ACFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0FD509-FAA6-490F-8E99-57602ADB216E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78CDF409-87B8-4BD3-A7A0-FA31B09DB512}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11513,26 +12916,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0FD509-FAA6-490F-8E99-57602ADB216E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16A2ABA2-2AE7-458F-84A6-54746C92ACFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>